--- a/Product planning.xlsx
+++ b/Product planning.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97efbf116aa12408/Projecten/VNG realisatie/Test-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EFEFC7-9178-4599-83E4-C64857D57602}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{03245F0E-61C5-41EE-91E4-B48AF19F40C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6BF48E60-1079-4AAB-824F-B1B9DE212DEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D3E43A69-FD92-4A38-8616-CA4B9208062A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Roadmap25jul19" sheetId="3" r:id="rId1"/>
-    <sheet name="Roadmap16mei19" sheetId="4" r:id="rId2"/>
-    <sheet name="Roadmap7mrt19" sheetId="1" r:id="rId3"/>
+    <sheet name="Roadmap22aug19" sheetId="3" r:id="rId1"/>
+    <sheet name="Roadmap25jul19" sheetId="5" r:id="rId2"/>
+    <sheet name="Roadmap16mei19" sheetId="4" r:id="rId3"/>
+    <sheet name="Roadmap7mrt19" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -249,6 +250,18 @@
   </si>
   <si>
     <t>Zorgen dat API-beheerders zelf test scenario's kunnen importeren.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Sprint 11</t>
+  </si>
+  <si>
+    <t>API testplatform</t>
+  </si>
+  <si>
+    <t>Opleveren van een testplatform voor client en provider API's. De tests worden vanuit een API getriggerd.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -515,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -854,10 +870,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC9DA26-0C32-4067-A2A5-8FED781E49E4}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="14" customWidth="1"/>
+    <col min="2" max="2" width="60.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="23">
+        <v>43798</v>
+      </c>
+      <c r="D10" s="23">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23">
+        <v>43812</v>
+      </c>
+      <c r="D11" s="23">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="23">
+        <v>43475</v>
+      </c>
+      <c r="D12" s="23">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="23">
+        <v>43503</v>
+      </c>
+      <c r="D13" s="23">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="23">
+        <v>43531</v>
+      </c>
+      <c r="D14" s="23">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="23">
+        <v>43559</v>
+      </c>
+      <c r="D15" s="23">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="34">
+        <v>43594</v>
+      </c>
+      <c r="D16" s="34">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="23">
+        <v>43629</v>
+      </c>
+      <c r="D20" s="23">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="23">
+        <v>43657</v>
+      </c>
+      <c r="D21" s="23">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="34">
+        <v>43678</v>
+      </c>
+      <c r="D22" s="34">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="23">
+        <v>43706</v>
+      </c>
+      <c r="D28" s="23">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67F3FCB-8FF4-452A-A86F-7D87BCBB3934}">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,42 +1291,42 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="34">
         <v>43594</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="34">
         <v>43629</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
@@ -1025,56 +1357,56 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="34">
         <v>43678</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="34">
         <v>43706</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
@@ -1091,20 +1423,20 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1122,12 +1454,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B88A4D0-8080-4259-9170-0CBB052D6F8C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,7 +1745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF5ABF9-31B4-4734-927A-2F0EA8EC180C}">
   <dimension ref="B2:H52"/>
   <sheetViews>
